--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1711671.916531883</v>
+        <v>1707366.200155813</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>256.1900748176406</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>107.0219443069634</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>83.82466560786628</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>102.1228193328348</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>148.7409523377882</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>149.8794763036715</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>321.9600010507968</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>35.36772610325022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>35.4652731219028</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>37.86850152006019</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>35.88641949135454</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.65140663107627</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>63.16281301712667</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31.26260713376613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.16281301712745</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.16086499484859</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>126.4267013134148</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>158.4589496224476</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.4076860934775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>466.1868111764269</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2534.017427501278</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2534.017427501278</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2534.017427501278</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.248772231163</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2181.248772231163</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,16 +4412,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2153.290992466904</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>2153.290992466904</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2538.966038586256</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2538.966038586256</v>
       </c>
       <c r="U5" t="n">
-        <v>2328.271037790499</v>
+        <v>2285.204253224348</v>
       </c>
       <c r="V5" t="n">
-        <v>1997.208150446929</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="W5" t="n">
-        <v>1997.208150446929</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X5" t="n">
-        <v>1623.742392185849</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.603060210037</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>576.7355737986852</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>576.7355737986852</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.929261481748</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C8" t="n">
-        <v>1175.929261481748</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D8" t="n">
-        <v>1175.929261481748</v>
+        <v>899.4894927932537</v>
       </c>
       <c r="E8" t="n">
-        <v>790.1410088835041</v>
+        <v>513.7012401950094</v>
       </c>
       <c r="F8" t="n">
-        <v>379.1551040938966</v>
+        <v>102.7153354054018</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>89.66795768223336</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>89.66795768223336</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,19 +4810,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>785.3786496953994</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1417.096460678711</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>2381.261620430141</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.134191782762</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.668433521682</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1562.52910154587</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>377.4396513563111</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1017.985000823416</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1685.529400850426</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2234.965409603149</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.7092995462731</v>
+        <v>872.2291984494694</v>
       </c>
       <c r="C10" t="n">
-        <v>332.7092995462731</v>
+        <v>703.2930155215626</v>
       </c>
       <c r="D10" t="n">
-        <v>332.7092995462731</v>
+        <v>553.1763761092268</v>
       </c>
       <c r="E10" t="n">
-        <v>332.7092995462731</v>
+        <v>405.2632825268337</v>
       </c>
       <c r="F10" t="n">
-        <v>332.7092995462731</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>89.76649002430668</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>808.1863668956901</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>808.1863668956901</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>553.5018786898032</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>553.5018786898032</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>553.5018786898032</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>332.7092995462731</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,7 +5287,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>443.7574521812149</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>276.5613528960949</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="17">
@@ -5503,37 +5503,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,28 +5752,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5837,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703114</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703114</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,28 +6238,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6311,22 +6311,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2875.571313159223</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.284195611858</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="32">
@@ -6688,37 +6688,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2381.235169913446</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>2854.44064873475</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.601046153952</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3388.154264430192</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3173.601046153952</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7420,16 +7420,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7557,13 +7557,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,22 +8458,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>243.4933181983577</v>
+        <v>359.9458024792946</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>62.54499603078654</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-8.013003602730812e-14</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.145255306345589e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>250.2980548978896</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.64330621514759</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>83.2711496294425</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1584408891651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.6691671648098</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.6711151870887</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>99.28295407562238</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.176967258617282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="15">
@@ -26316,31 +26316,31 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26352,10 +26352,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808059</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.694760941172718e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26450,10 +26450,10 @@
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
@@ -26524,46 +26524,46 @@
         <v>-349072.2223292029</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853415</v>
+        <v>240895.6568853418</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154672</v>
+        <v>85091.85079154669</v>
       </c>
       <c r="E6" t="n">
-        <v>-353207.4679728924</v>
+        <v>-353554.8472272487</v>
       </c>
       <c r="F6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535563</v>
       </c>
       <c r="G6" t="n">
-        <v>417845.2234079138</v>
+        <v>417497.8441535573</v>
       </c>
       <c r="H6" t="n">
-        <v>417845.223407914</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="I6" t="n">
-        <v>417845.223407914</v>
+        <v>417497.8441535573</v>
       </c>
       <c r="J6" t="n">
-        <v>241422.0042153214</v>
+        <v>241074.6249609641</v>
       </c>
       <c r="K6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.844153557</v>
       </c>
       <c r="L6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="M6" t="n">
-        <v>293636.7126998554</v>
+        <v>293289.3334454987</v>
       </c>
       <c r="N6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="O6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.844153557</v>
       </c>
       <c r="P6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.8441535569</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036082</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>157.5940952031544</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>109.4263760506944</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>72.34622323392887</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>72.29289347613675</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>102.4832151705011</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>102.2581670201565</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>90.95690289513999</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>83.12831479064008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>117.2468235473297</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28061,16 +28061,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>185.5044032006985</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202626</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32338,7 +32338,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>200.3460366764701</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32791,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868572</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32806,13 +32806,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33031,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647492</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601591</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33976,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34231,10 +34231,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>439.7905029377338</v>
+        <v>556.2429872186707</v>
       </c>
       <c r="O8" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>172.3324985836136</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>220.940907034241</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35965,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0572943778172</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>57.74979223202568</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36439,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648388</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36454,13 +36454,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37314,7 +37314,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802849</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1707366.200155813</v>
+        <v>1709126.730458598</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>341.491276544658</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>102.1228193328348</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365811</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>35.36772610325022</v>
+        <v>62.5259021120819</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,7 +1308,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>35.4652731219028</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.7120942205307</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135454</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>99.65140663107627</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>121.8000472740352</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161911274</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>162.5316204294553</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>97.75513637220199</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>126.4267013134148</v>
+        <v>154.4892550148504</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8253826161911274</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>1.799772605716619</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4418,10 +4418,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1522.852542550656</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1137.064289952412</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>726.0783851628041</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2538.966038586256</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2538.966038586256</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2285.204253224348</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1954.141365880777</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1954.141365880777</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.141365880777</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.141365880777</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4731,34 +4731,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
         <v>571.3497027553424</v>
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.717708340416</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="C8" t="n">
-        <v>1257.755191400004</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="D8" t="n">
-        <v>899.4894927932537</v>
+        <v>1245.145109039766</v>
       </c>
       <c r="E8" t="n">
-        <v>513.7012401950094</v>
+        <v>859.3568564415218</v>
       </c>
       <c r="F8" t="n">
-        <v>102.7153354054018</v>
+        <v>448.3709516519143</v>
       </c>
       <c r="G8" t="n">
-        <v>89.66795768223336</v>
+        <v>435.3235739287458</v>
       </c>
       <c r="H8" t="n">
-        <v>89.66795768223336</v>
+        <v>117.1004587012553</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>1830.581063083657</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
-        <v>2381.261620430141</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1603.410807646517</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>377.4396513563111</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1017.985000823416</v>
+        <v>1646.937527316293</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.529400850426</v>
+        <v>1845.594268968958</v>
       </c>
       <c r="O9" t="n">
-        <v>2234.965409603149</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>872.2291984494694</v>
+        <v>667.4695073176202</v>
       </c>
       <c r="C10" t="n">
-        <v>703.2930155215626</v>
+        <v>667.4695073176202</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1763761092268</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E10" t="n">
-        <v>405.2632825268337</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3733350289233</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>89.76649002430668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>849.11797214786</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,22 +5050,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143763</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143763</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.613315601761</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>888.6771326738542</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>738.5604932615184</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>590.6473996791253</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>443.7574521812149</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>276.5613528960949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510509</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.054359575531</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.261780432001</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5734,34 +5734,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2215.744025863516</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2281.17481784054</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1016.58045691144</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.58045691144</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6785,16 +6785,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,19 +7010,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
         <v>1373.553594266881</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,25 +7156,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7183,7 +7183,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,13 +7262,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>368.1017737596992</v>
       </c>
       <c r="N8" t="n">
-        <v>359.9458024792946</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>294.7256303393016</v>
       </c>
       <c r="P9" t="n">
-        <v>62.54499603078654</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-8.013003602730812e-14</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.145255306345589e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978896</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.64330621514759</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>45.44677382459267</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>68.49784254931346</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393054</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.49466557218929</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>83.2711496294426</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>99.28295407562238</v>
+        <v>71.22040037418677</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.54986409393054</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117845</v>
@@ -26322,40 +26322,40 @@
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808059</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>6.694760941172718e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682744</v>
@@ -26432,13 +26432,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26450,7 +26450,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.2223292029</v>
+        <v>-349072.222329203</v>
       </c>
       <c r="C6" t="n">
         <v>240895.6568853418</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154669</v>
+        <v>85091.85079154666</v>
       </c>
       <c r="E6" t="n">
-        <v>-353554.8472272487</v>
+        <v>-353242.2058983279</v>
       </c>
       <c r="F6" t="n">
-        <v>417497.8441535563</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="G6" t="n">
-        <v>417497.8441535573</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="H6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824786</v>
       </c>
       <c r="I6" t="n">
-        <v>417497.8441535573</v>
+        <v>417810.4854824785</v>
       </c>
       <c r="J6" t="n">
-        <v>241074.6249609641</v>
+        <v>241387.2662898854</v>
       </c>
       <c r="K6" t="n">
-        <v>417497.844153557</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="L6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824785</v>
       </c>
       <c r="M6" t="n">
-        <v>293289.3334454987</v>
+        <v>293601.9747744199</v>
       </c>
       <c r="N6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824785</v>
       </c>
       <c r="O6" t="n">
-        <v>417497.844153557</v>
+        <v>417810.4854824785</v>
       </c>
       <c r="P6" t="n">
-        <v>417497.8441535569</v>
+        <v>417810.4854824784</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036082</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>72.29289347613695</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>72.29289347613675</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724688</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.12831479064008</v>
+        <v>55.97013878180839</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>117.2468235473297</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>15.87255913156409</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.9226811202626</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>246.9596973201445</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33982,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>556.6870392399089</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2429872186707</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>455.8491784895649</v>
       </c>
       <c r="P9" t="n">
-        <v>172.3324985836136</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.940907034241</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>557.4845759992799</v>
+      </c>
+      <c r="P21" t="n">
         <v>334.4034204366973</v>
-      </c>
-      <c r="O21" t="n">
-        <v>557.48457599928</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
